--- a/Databases/User.xlsx
+++ b/Databases/User.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\remya\Documents\NetBeansProjects\InventorySystem\Databases\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="20">
   <si>
     <t>ID</t>
   </si>
@@ -73,12 +73,25 @@
   </si>
   <si>
     <t>pass5</t>
+  </si>
+  <si>
+    <t>rahee</t>
+  </si>
+  <si>
+    <t>as</t>
+  </si>
+  <si>
+    <t>Raheem_Doman</t>
+  </si>
+  <si>
+    <t>power123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -416,7 +429,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
@@ -424,7 +437,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="5"/>
+    <col min="1" max="1" style="5" width="8.88671875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.3">
@@ -441,73 +454,87 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2">
+      <c r="A2" t="s" s="5">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D2" t="s" s="0">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="3">
+      <c r="A3" t="s" s="5">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="C3" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="D3" t="s" s="0">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    <row r="4">
+      <c r="A4" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="C4" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="D4" t="s" s="0">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
+    <row r="5">
+      <c r="A5" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="C5" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="D5" t="s" s="0">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
+    <row r="6">
+      <c r="A6" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="B6" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="C6" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="5">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C7" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="D7" t="s" s="0">
         <v>9</v>
       </c>
     </row>

--- a/Databases/User.xlsx
+++ b/Databases/User.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="20">
   <si>
     <t>ID</t>
   </si>
